--- a/Parser/src/main/resources/agreements.xlsx
+++ b/Parser/src/main/resources/agreements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\collectorApp\collector-api\parser\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D3131-1824-459D-B102-A9E542C0CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099D1A8-CD51-4C24-BD54-8AAE89036065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4725" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Сумма долга</t>
   </si>
@@ -84,18 +84,12 @@
     <t>Сбербанк</t>
   </si>
   <si>
-    <t>Воронов Андрей Владимирович</t>
-  </si>
-  <si>
     <t>М</t>
   </si>
   <si>
     <t>Единственный заемщик</t>
   </si>
   <si>
-    <t>+79261473456</t>
-  </si>
-  <si>
     <t>Регистрация</t>
   </si>
   <si>
@@ -105,145 +99,163 @@
     <t>ВТБ</t>
   </si>
   <si>
-    <t>Кривой Петр Иванович</t>
-  </si>
-  <si>
-    <t>+79261473455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия г. Москва ул. Пушкина д. 11 кв. 128 </t>
-  </si>
-  <si>
     <t>Тинькофф</t>
   </si>
   <si>
-    <t>Помойная Вера Сергеевна</t>
-  </si>
-  <si>
     <t>Ж</t>
   </si>
   <si>
-    <t>+79150403598</t>
-  </si>
-  <si>
     <t>РосселхозБанк</t>
   </si>
   <si>
-    <t>Григорьева Екатерина Дмитриевна</t>
-  </si>
-  <si>
     <t>Созаемщик</t>
   </si>
   <si>
     <t>+79294443546</t>
   </si>
   <si>
-    <t>Россия г. Кострома ул. Калашникова д. 76 кв. 115</t>
-  </si>
-  <si>
     <t>Водительские права</t>
   </si>
   <si>
     <t>СовкомБанк</t>
   </si>
   <si>
-    <t>Петров Иван Георгиевич</t>
-  </si>
-  <si>
     <t>Поручитель</t>
   </si>
   <si>
-    <t>+79645554098</t>
-  </si>
-  <si>
     <t>ИНН</t>
   </si>
   <si>
-    <t>450987506095</t>
-  </si>
-  <si>
-    <t>Клюев Герасим Петрович</t>
-  </si>
-  <si>
     <t>Залогодатель</t>
   </si>
   <si>
-    <t>+79213456798</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
-    <t>90875674857</t>
-  </si>
-  <si>
     <t>РайфайзенБанк</t>
   </si>
   <si>
-    <t>Ручкин Александр Борисович</t>
-  </si>
-  <si>
-    <t>+79150407633</t>
-  </si>
-  <si>
     <t>Загранпаспорт</t>
   </si>
   <si>
-    <t>568455632</t>
-  </si>
-  <si>
     <t>ГазпромБанк</t>
   </si>
   <si>
-    <t>Гуруляев Константин Васильевич</t>
-  </si>
-  <si>
-    <t>+79260405958</t>
-  </si>
-  <si>
-    <t>4306344467</t>
-  </si>
-  <si>
-    <t>Кривошеев Георгий Владимирович</t>
-  </si>
-  <si>
-    <t>+79261114567</t>
-  </si>
-  <si>
-    <t>Россия г. Мурманск ул. Северян д. 151 кв. 4</t>
-  </si>
-  <si>
-    <t>Россия г. Ростов-на-Дону ул. Калинина д. 33 кв. 98</t>
-  </si>
-  <si>
-    <t>Россия г. Владивосток ул. Мира д. 10 кв. 111</t>
-  </si>
-  <si>
-    <t>Россия г. Киров ул. Кастрюлина д. 1 кв. 5</t>
-  </si>
-  <si>
-    <t>Россия г. Тула ул. Ленина д. 20 кв. 11</t>
-  </si>
-  <si>
-    <t>Россия г. Нижний Новгород ул. Крупской д. 15 кв. 2</t>
-  </si>
-  <si>
-    <t>Россия г. Орел ул. Корчагина д. 24 кв. 35</t>
-  </si>
-  <si>
-    <t>4509890789</t>
-  </si>
-  <si>
-    <t>Груничева Елена Владимировна</t>
-  </si>
-  <si>
-    <t>+79290019878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия г. Санкт-Петербург ул. Невский проспект  д. 12 кв. 8 </t>
-  </si>
-  <si>
-    <t>4208400345</t>
+    <t>Петров Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>+79261473478</t>
+  </si>
+  <si>
+    <t>Россия г. Орел ул. Корчагина д. 24 кв. 37</t>
+  </si>
+  <si>
+    <t>4508134560</t>
+  </si>
+  <si>
+    <t>Косой Петр Иванович</t>
+  </si>
+  <si>
+    <t>+79261473445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Россия г. Москва ул. Пушкина д. 15 кв. 18 </t>
+  </si>
+  <si>
+    <t>4507456978</t>
+  </si>
+  <si>
+    <t>Покойная Вера Сергеевна</t>
+  </si>
+  <si>
+    <t>+79150403589</t>
+  </si>
+  <si>
+    <t>Россия г. Нижний Новгород ул. Крупской д. 14 кв. 22</t>
+  </si>
+  <si>
+    <t>4306345564</t>
+  </si>
+  <si>
+    <t>Юрьева Екатерина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Россия г. Кострома ул. Калашникова д. 7 кв. 11</t>
+  </si>
+  <si>
+    <t>8686345693</t>
+  </si>
+  <si>
+    <t>Козлов Иван Георгиевич</t>
+  </si>
+  <si>
+    <t>+79645554089</t>
+  </si>
+  <si>
+    <t>Россия г. Тула ул. Ленина д. 2 кв. 110</t>
+  </si>
+  <si>
+    <t>450987506094</t>
+  </si>
+  <si>
+    <t>Курлыкин Герасим Петрович</t>
+  </si>
+  <si>
+    <t>+79213456789</t>
+  </si>
+  <si>
+    <t>Россия г. Киров ул. Кастрюлина д. 15 кв. 54</t>
+  </si>
+  <si>
+    <t>90875674856</t>
+  </si>
+  <si>
+    <t>Крючкин Александр Борисович</t>
+  </si>
+  <si>
+    <t>+79150407622</t>
+  </si>
+  <si>
+    <t>Россия г. Владивосток ул. Мира д. 11 кв. 12</t>
+  </si>
+  <si>
+    <t>568455631</t>
+  </si>
+  <si>
+    <t>Муруляев Константин Васильевич</t>
+  </si>
+  <si>
+    <t>+79260405985</t>
+  </si>
+  <si>
+    <t>Россия г. Ростов-на-Дону ул. Калинина д. 34 кв. 9</t>
+  </si>
+  <si>
+    <t>4306344469</t>
+  </si>
+  <si>
+    <t>Кривоносов Георгий Владимирович</t>
+  </si>
+  <si>
+    <t>+79261114576</t>
+  </si>
+  <si>
+    <t>Россия г. Мурманск ул. Северян д. 1 кв. 13</t>
+  </si>
+  <si>
+    <t>4509890780</t>
+  </si>
+  <si>
+    <t>Хрюничева Елена Владимировна</t>
+  </si>
+  <si>
+    <t>+79290019887</t>
+  </si>
+  <si>
+    <t>Россия г. Санкт-Петербург ул. Невский проспект  д. 11 кв. 82</t>
+  </si>
+  <si>
+    <t>4208400344</t>
   </si>
 </sst>
 </file>
@@ -296,11 +308,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +597,7 @@
   <dimension ref="A1:T176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,28 +612,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -671,52 +683,52 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>4500000</v>
+      <c r="A3" s="6">
+        <v>4300000</v>
       </c>
       <c r="B3" s="3">
-        <v>2800000</v>
+        <v>2000000</v>
       </c>
       <c r="C3" s="4">
-        <v>44607</v>
+        <v>44972</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4">
+        <v>31800</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4">
-        <v>31070</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5">
-        <v>4508134567</v>
+      <c r="M3" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="N3" s="4">
-        <v>38453</v>
+        <v>39183</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3200000</v>
+      <c r="A4" s="6">
+        <v>3400000</v>
       </c>
       <c r="B4" s="3">
         <v>1100000</v>
@@ -725,389 +737,389 @@
         <v>44297</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4">
-        <v>29707</v>
+        <v>30072</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4507456987</v>
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="N4" s="4">
-        <v>37210</v>
+        <v>37575</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1000000</v>
       </c>
       <c r="B5" s="3">
         <v>130000</v>
       </c>
       <c r="C5" s="4">
-        <v>45254</v>
+        <v>45620</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4">
-        <v>35040</v>
+        <v>34675</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="5">
-        <v>4306345546</v>
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="N5" s="4">
-        <v>42062</v>
+        <v>41697</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>3100000</v>
       </c>
       <c r="B6" s="3">
         <v>2900000</v>
       </c>
       <c r="C6" s="4">
-        <v>45641</v>
+        <v>45275</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>31911</v>
+        <v>32277</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="5">
-        <v>8686345694</v>
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="N6" s="4">
-        <v>43637</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5000000</v>
       </c>
       <c r="B7" s="3">
         <v>2300000</v>
       </c>
       <c r="C7" s="4">
-        <v>44593</v>
+        <v>43862</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4">
-        <v>24724</v>
+        <v>25090</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N7" s="4">
-        <v>31315</v>
+        <v>32411</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>4600000</v>
       </c>
       <c r="B8" s="3">
         <v>800000</v>
       </c>
       <c r="C8" s="4">
-        <v>44186</v>
+        <v>44551</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4">
-        <v>30591</v>
+        <v>31322</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N8" s="4">
-        <v>37739</v>
+        <v>38470</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1800000</v>
       </c>
       <c r="B9" s="3">
         <v>1100000</v>
       </c>
       <c r="C9" s="4">
-        <v>45488</v>
+        <v>45122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4">
-        <v>36411</v>
+        <v>36046</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N9" s="4">
-        <v>44329</v>
+        <v>45059</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8900000</v>
       </c>
       <c r="B10" s="3">
         <v>7800000</v>
       </c>
       <c r="C10" s="4">
-        <v>44940</v>
+        <v>45305</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4">
-        <v>34202</v>
+        <v>34567</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N10" s="4">
-        <v>41475</v>
+        <v>41840</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>1900000</v>
       </c>
       <c r="B11" s="3">
         <v>1000000</v>
       </c>
       <c r="C11" s="4">
-        <v>33188</v>
+        <v>44146</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4">
-        <v>28532</v>
+        <v>28897</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N11" s="4">
-        <v>37221</v>
+        <v>36856</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2000000</v>
       </c>
       <c r="B12" s="3">
         <v>900000</v>
       </c>
       <c r="C12" s="4">
-        <v>44482</v>
+        <v>44847</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12" s="4">
-        <v>36923</v>
+        <v>36557</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N12" s="4">
-        <v>44205</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
